--- a/data/trans_orig/P58-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P58-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CCD1776-1CA2-46E2-AB32-A6B4D7F71CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73E5C18A-12AE-4F35-B407-049424A40D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA578020-3BD8-40B8-B236-7864782A9E42}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7A7A4F2-4C0D-4358-B629-DE6E6D953C8E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="415">
   <si>
     <t>Población según su lugar de nacimiento en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -77,1207 +77,1213 @@
     <t>6,15%</t>
   </si>
   <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>Resto de España</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>Andalucia</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>Resto de España</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>Andalucia</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2015 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
   </si>
   <si>
     <t>92,5%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2015 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
   </si>
   <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>93,96%</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5192880-C9A1-48A1-87D6-30B5930FD4C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D62E67D-AEDB-4E41-B787-477177B08887}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2497,13 +2503,13 @@
         <v>249635</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>372</v>
@@ -2512,13 +2518,13 @@
         <v>522590</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,13 +2539,13 @@
         <v>2799173</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>2938</v>
@@ -2548,13 +2554,13 @@
         <v>2904958</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>5855</v>
@@ -2563,13 +2569,13 @@
         <v>5704131</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,7 +2631,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2644,7 +2650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E8008F-3CFD-47B9-87D5-643FD7E7128C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA77380-D404-4046-90C3-0FDAF88D434C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2661,7 +2667,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2768,13 +2774,13 @@
         <v>52159</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -2783,13 +2789,13 @@
         <v>50297</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>82</v>
@@ -2798,7 +2804,7 @@
         <v>102456</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>131</v>
@@ -2840,7 +2846,7 @@
         <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="M5" s="7">
         <v>74</v>
@@ -2849,13 +2855,13 @@
         <v>147137</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2876,13 @@
         <v>850783</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H6" s="7">
         <v>1165</v>
@@ -2885,13 +2891,13 @@
         <v>1212062</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M6" s="7">
         <v>1999</v>
@@ -2900,13 +2906,13 @@
         <v>2062846</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,13 +2980,13 @@
         <v>122447</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>116</v>
@@ -2989,7 +2995,7 @@
         <v>137600</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>153</v>
@@ -3004,13 +3010,13 @@
         <v>260047</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +3031,13 @@
         <v>200558</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H9" s="7">
         <v>100</v>
@@ -3040,13 +3046,13 @@
         <v>185955</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M9" s="7">
         <v>197</v>
@@ -3055,13 +3061,13 @@
         <v>386513</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,13 +3082,13 @@
         <v>1640952</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H10" s="7">
         <v>1419</v>
@@ -3091,13 +3097,13 @@
         <v>1434249</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>3083</v>
@@ -3106,13 +3112,13 @@
         <v>3075200</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,13 +3186,13 @@
         <v>33286</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -3195,13 +3201,13 @@
         <v>43477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M12" s="7">
         <v>62</v>
@@ -3210,13 +3216,13 @@
         <v>76763</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,13 +3237,13 @@
         <v>86963</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -3246,13 +3252,13 @@
         <v>90941</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -3261,13 +3267,13 @@
         <v>177904</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3288,13 @@
         <v>360932</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>326</v>
@@ -3297,13 +3303,13 @@
         <v>324213</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M14" s="7">
         <v>696</v>
@@ -3312,13 +3318,13 @@
         <v>685145</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3392,13 @@
         <v>207892</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H16" s="7">
         <v>194</v>
@@ -3401,13 +3407,13 @@
         <v>231374</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="M16" s="7">
         <v>355</v>
@@ -3416,13 +3422,13 @@
         <v>439266</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3443,13 @@
         <v>359222</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H17" s="7">
         <v>190</v>
@@ -3452,13 +3458,13 @@
         <v>352332</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
         <v>363</v>
@@ -3467,13 +3473,13 @@
         <v>711554</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3494,13 @@
         <v>2852667</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H18" s="7">
         <v>2910</v>
@@ -3503,13 +3509,13 @@
         <v>2970524</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M18" s="7">
         <v>5778</v>
@@ -3518,13 +3524,13 @@
         <v>5823191</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>223</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,7 +3586,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3599,7 +3605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD2C58B-99DF-4728-B001-570C47DF3807}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E843F19B-711E-4FEF-B421-92ADEAEE94BC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3616,7 +3622,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3723,13 +3729,13 @@
         <v>24811</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -3738,13 +3744,13 @@
         <v>36530</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -3753,13 +3759,13 @@
         <v>61341</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3780,13 @@
         <v>41530</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>156</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -3792,10 +3798,10 @@
         <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>55</v>
@@ -3804,13 +3810,13 @@
         <v>95246</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3831,13 @@
         <v>688005</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H6" s="7">
         <v>829</v>
@@ -3840,28 +3846,28 @@
         <v>904414</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M6" s="7">
         <v>1545</v>
       </c>
       <c r="N6" s="7">
-        <v>1592420</v>
+        <v>1592419</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,7 +3909,7 @@
         <v>1653</v>
       </c>
       <c r="N7" s="7">
-        <v>1749007</v>
+        <v>1749006</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -3929,13 +3935,13 @@
         <v>143660</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>122</v>
@@ -3947,10 +3953,10 @@
         <v>100</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>140</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>230</v>
@@ -3959,13 +3965,13 @@
         <v>275879</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>140</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3986,13 @@
         <v>181865</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H9" s="7">
         <v>123</v>
@@ -3995,13 +4001,13 @@
         <v>203594</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M9" s="7">
         <v>230</v>
@@ -4010,13 +4016,13 @@
         <v>385459</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4037,13 @@
         <v>1750860</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>1663</v>
@@ -4046,13 +4052,13 @@
         <v>1652487</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>3400</v>
@@ -4061,13 +4067,13 @@
         <v>3403347</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4141,13 @@
         <v>38900</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>272</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>53</v>
@@ -4150,13 +4156,13 @@
         <v>59274</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M12" s="7">
         <v>83</v>
@@ -4165,13 +4171,13 @@
         <v>98174</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>276</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4192,13 @@
         <v>90840</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -4201,13 +4207,13 @@
         <v>68795</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>95</v>
@@ -4216,13 +4222,13 @@
         <v>159635</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4243,13 @@
         <v>417146</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="H14" s="7">
         <v>431</v>
@@ -4252,13 +4258,13 @@
         <v>421072</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>849</v>
@@ -4273,7 +4279,7 @@
         <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4347,13 @@
         <v>207371</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>156</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="H16" s="7">
         <v>209</v>
@@ -4371,13 +4377,13 @@
         <v>435394</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4398,13 @@
         <v>314236</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H17" s="7">
         <v>194</v>
@@ -4407,13 +4413,13 @@
         <v>326105</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M17" s="7">
         <v>380</v>
@@ -4422,10 +4428,10 @@
         <v>640340</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>307</v>
@@ -4443,13 +4449,13 @@
         <v>2856012</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>223</v>
+        <v>308</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H18" s="7">
         <v>2923</v>
@@ -4458,13 +4464,13 @@
         <v>2977972</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M18" s="7">
         <v>5794</v>
@@ -4473,13 +4479,13 @@
         <v>5833984</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,7 +4541,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4554,7 +4560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC48D7A-FDBC-477A-A500-6F80ACF3F117}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854F265F-D93D-411E-90C8-F290359BD5A7}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4571,7 +4577,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4678,13 +4684,13 @@
         <v>6069</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -4693,13 +4699,13 @@
         <v>6687</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>80</v>
@@ -4708,13 +4714,13 @@
         <v>12755</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,13 +4735,13 @@
         <v>10239</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -4744,13 +4750,13 @@
         <v>21651</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -4759,13 +4765,13 @@
         <v>31890</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,28 +4786,28 @@
         <v>525326</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H6" s="7">
         <v>1345</v>
       </c>
       <c r="I6" s="7">
-        <v>795678</v>
+        <v>795679</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M6" s="7">
         <v>1986</v>
@@ -4810,13 +4816,13 @@
         <v>1321004</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,7 +4849,7 @@
         <v>1424</v>
       </c>
       <c r="I7" s="7">
-        <v>824015</v>
+        <v>824016</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4884,13 +4890,13 @@
         <v>24263</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>237</v>
@@ -4899,13 +4905,13 @@
         <v>37754</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>389</v>
@@ -4914,13 +4920,13 @@
         <v>62017</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,13 +4941,13 @@
         <v>99145</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H9" s="7">
         <v>140</v>
@@ -4950,13 +4956,13 @@
         <v>99891</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="M9" s="7">
         <v>228</v>
@@ -4965,13 +4971,13 @@
         <v>199036</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>357</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +4992,13 @@
         <v>1987035</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H10" s="7">
         <v>2539</v>
@@ -5001,13 +5007,13 @@
         <v>1973557</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M10" s="7">
         <v>4290</v>
@@ -5016,13 +5022,13 @@
         <v>3960592</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5096,13 @@
         <v>8455</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H12" s="7">
         <v>90</v>
@@ -5105,13 +5111,13 @@
         <v>14340</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M12" s="7">
         <v>143</v>
@@ -5120,13 +5126,13 @@
         <v>22794</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,13 +5147,13 @@
         <v>69449</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -5156,13 +5162,13 @@
         <v>60133</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>152</v>
@@ -5171,13 +5177,13 @@
         <v>129582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,13 +5198,13 @@
         <v>590440</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>826</v>
@@ -5207,10 +5213,10 @@
         <v>636906</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>37</v>
@@ -5222,13 +5228,13 @@
         <v>1227347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>140</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5302,13 @@
         <v>38786</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>323</v>
+        <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="H16" s="7">
         <v>369</v>
@@ -5311,13 +5317,13 @@
         <v>58780</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>612</v>
@@ -5326,13 +5332,13 @@
         <v>97566</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5353,13 @@
         <v>178834</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>132</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>261</v>
@@ -5362,13 +5368,13 @@
         <v>181674</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>429</v>
@@ -5377,13 +5383,13 @@
         <v>360508</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,13 +5404,13 @@
         <v>3102801</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H18" s="7">
         <v>4710</v>
@@ -5413,13 +5419,13 @@
         <v>3406141</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M18" s="7">
         <v>7661</v>
@@ -5428,13 +5434,13 @@
         <v>6508942</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,7 +5496,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P58-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P58-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73E5C18A-12AE-4F35-B407-049424A40D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56CA03E0-C644-454B-A24F-4024F4D36FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7A7A4F2-4C0D-4358-B629-DE6E6D953C8E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0EAED9CA-E8F9-43B4-96E4-63D9B693599F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,1177 +77,1177 @@
     <t>6,15%</t>
   </si>
   <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>Resto de España</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>Andalucia</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2016 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>Resto de España</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>Andalucia</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
     <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2015 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
   </si>
   <si>
     <t>5,17%</t>
@@ -1695,7 +1695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D62E67D-AEDB-4E41-B787-477177B08887}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDD0D5E-A7EB-433A-8ECB-1487ABED6789}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2503,13 +2503,13 @@
         <v>249635</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>372</v>
@@ -2518,13 +2518,13 @@
         <v>522590</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,13 +2539,13 @@
         <v>2799173</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>2938</v>
@@ -2554,13 +2554,13 @@
         <v>2904958</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>5855</v>
@@ -2569,13 +2569,13 @@
         <v>5704131</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,7 +2631,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2650,7 +2650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA77380-D404-4046-90C3-0FDAF88D434C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF98207-178B-436C-B8C6-33CE57B00D2B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2667,7 +2667,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2774,10 +2774,10 @@
         <v>52159</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>126</v>
@@ -2846,7 +2846,7 @@
         <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="M5" s="7">
         <v>74</v>
@@ -2858,10 +2858,10 @@
         <v>137</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2876,13 @@
         <v>850783</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H6" s="7">
         <v>1165</v>
@@ -2891,13 +2891,13 @@
         <v>1212062</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M6" s="7">
         <v>1999</v>
@@ -2906,13 +2906,13 @@
         <v>2062846</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2980,13 @@
         <v>122447</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>116</v>
@@ -2995,13 +2995,13 @@
         <v>137600</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>211</v>
@@ -3010,13 +3010,13 @@
         <v>260047</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3031,13 @@
         <v>200558</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H9" s="7">
         <v>100</v>
@@ -3046,13 +3046,13 @@
         <v>185955</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M9" s="7">
         <v>197</v>
@@ -3061,13 +3061,13 @@
         <v>386513</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3082,13 @@
         <v>1640952</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7">
         <v>1419</v>
@@ -3097,13 +3097,13 @@
         <v>1434249</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M10" s="7">
         <v>3083</v>
@@ -3112,13 +3112,13 @@
         <v>3075200</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3186,13 @@
         <v>33286</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -3201,13 +3201,13 @@
         <v>43477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="M12" s="7">
         <v>62</v>
@@ -3216,13 +3216,13 @@
         <v>76763</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3237,13 @@
         <v>86963</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -3252,13 +3252,13 @@
         <v>90941</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -3267,13 +3267,13 @@
         <v>177904</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3288,13 @@
         <v>360932</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>326</v>
@@ -3303,13 +3303,13 @@
         <v>324213</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>696</v>
@@ -3318,13 +3318,13 @@
         <v>685145</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3392,13 @@
         <v>207892</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H16" s="7">
         <v>194</v>
@@ -3407,13 +3407,13 @@
         <v>231374</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M16" s="7">
         <v>355</v>
@@ -3422,13 +3422,13 @@
         <v>439266</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3443,13 @@
         <v>359222</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H17" s="7">
         <v>190</v>
@@ -3458,13 +3458,13 @@
         <v>352332</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>363</v>
@@ -3473,13 +3473,13 @@
         <v>711554</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3494,13 @@
         <v>2852667</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H18" s="7">
         <v>2910</v>
@@ -3509,13 +3509,13 @@
         <v>2970524</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M18" s="7">
         <v>5778</v>
@@ -3524,13 +3524,13 @@
         <v>5823191</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,7 +3586,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3605,7 +3605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E843F19B-711E-4FEF-B421-92ADEAEE94BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC9BF91-8936-4EF6-A371-50583CE8AF31}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3622,7 +3622,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3729,13 +3729,13 @@
         <v>24811</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>24</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -3744,13 +3744,13 @@
         <v>36530</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -3759,13 +3759,13 @@
         <v>61341</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3780,13 @@
         <v>41530</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -3795,13 +3795,13 @@
         <v>53716</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>55</v>
@@ -3810,13 +3810,13 @@
         <v>95246</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3831,13 @@
         <v>688005</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H6" s="7">
         <v>829</v>
@@ -3846,13 +3846,13 @@
         <v>904414</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M6" s="7">
         <v>1545</v>
@@ -3861,13 +3861,13 @@
         <v>1592419</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3935,13 @@
         <v>143660</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H8" s="7">
         <v>122</v>
@@ -3953,10 +3953,10 @@
         <v>100</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>230</v>
@@ -3965,13 +3965,13 @@
         <v>275879</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3986,13 @@
         <v>181865</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H9" s="7">
         <v>123</v>
@@ -4001,13 +4001,13 @@
         <v>203594</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M9" s="7">
         <v>230</v>
@@ -4016,13 +4016,13 @@
         <v>385459</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4037,13 @@
         <v>1750860</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>1663</v>
@@ -4052,13 +4052,13 @@
         <v>1652487</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>3400</v>
@@ -4067,13 +4067,13 @@
         <v>3403347</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4141,13 @@
         <v>38900</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>53</v>
@@ -4156,13 +4156,13 @@
         <v>59274</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M12" s="7">
         <v>83</v>
@@ -4171,13 +4171,13 @@
         <v>98174</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,7 +4249,7 @@
         <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>431</v>
@@ -4258,13 +4258,13 @@
         <v>421072</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>849</v>
@@ -4273,13 +4273,13 @@
         <v>838218</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,13 +4347,13 @@
         <v>207371</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>156</v>
+        <v>297</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>209</v>
@@ -4362,13 +4362,13 @@
         <v>228023</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>298</v>
+        <v>126</v>
       </c>
       <c r="M16" s="7">
         <v>366</v>
@@ -4377,13 +4377,13 @@
         <v>435394</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4398,13 @@
         <v>314236</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H17" s="7">
         <v>194</v>
@@ -4413,13 +4413,13 @@
         <v>326105</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>380</v>
@@ -4428,13 +4428,13 @@
         <v>640340</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>159</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4449,13 @@
         <v>2856012</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H18" s="7">
         <v>2923</v>
@@ -4464,13 +4464,13 @@
         <v>2977972</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M18" s="7">
         <v>5794</v>
@@ -4479,13 +4479,13 @@
         <v>5833984</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>316</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,7 +4541,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4560,7 +4560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854F265F-D93D-411E-90C8-F290359BD5A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0CEC6F-AF95-47F6-B007-E5ED9672CF82}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4577,7 +4577,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4684,13 +4684,13 @@
         <v>6069</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -4699,13 +4699,13 @@
         <v>6687</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>80</v>
@@ -4714,13 +4714,13 @@
         <v>12755</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4735,13 @@
         <v>10239</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -4750,7 +4750,7 @@
         <v>21651</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>226</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>331</v>
@@ -4977,7 +4977,7 @@
         <v>360</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,7 +5099,7 @@
         <v>370</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>371</v>
@@ -5147,7 +5147,7 @@
         <v>69449</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>378</v>
@@ -5183,7 +5183,7 @@
         <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,13 +5198,13 @@
         <v>590440</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>826</v>
@@ -5213,10 +5213,10 @@
         <v>636906</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>37</v>
@@ -5228,13 +5228,13 @@
         <v>1227347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5302,13 @@
         <v>38786</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="H16" s="7">
         <v>369</v>
@@ -5317,13 +5317,13 @@
         <v>58780</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>612</v>
@@ -5335,10 +5335,10 @@
         <v>376</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5353,13 @@
         <v>178834</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>261</v>
@@ -5368,13 +5368,13 @@
         <v>181674</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>429</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P58-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P58-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56CA03E0-C644-454B-A24F-4024F4D36FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD2BE89F-9E13-475C-901D-D6D1693869B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0EAED9CA-E8F9-43B4-96E4-63D9B693599F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7DC1FF09-DF3D-4050-9ADF-453CE9457C29}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="413">
   <si>
     <t>Población según su lugar de nacimiento en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -77,1201 +77,1195 @@
     <t>6,15%</t>
   </si>
   <si>
-    <t>4,48%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>Resto de España</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>Andalucia</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
   </si>
   <si>
     <t>8,17%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>Resto de España</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>Andalucia</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2016 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2016 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
+    <t>4,4%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
   </si>
   <si>
     <t>93,45%</t>
   </si>
   <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>92,62%</t>
+    <t>92,72%</t>
   </si>
   <si>
     <t>94,01%</t>
@@ -1280,10 +1274,10 @@
     <t>93,43%</t>
   </si>
   <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDD0D5E-A7EB-433A-8ECB-1487ABED6789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1570CA57-609B-423D-9EF9-AD5A087B2382}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2524,7 +2518,7 @@
         <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,7 +2644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF98207-178B-436C-B8C6-33CE57B00D2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DEF3C4-88CD-466A-A16F-B07EA0780BD5}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2777,10 +2771,10 @@
         <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -2789,13 +2783,13 @@
         <v>50297</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>82</v>
@@ -2804,7 +2798,7 @@
         <v>102456</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>131</v>
@@ -2846,7 +2840,7 @@
         <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>74</v>
@@ -2855,13 +2849,13 @@
         <v>147137</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2870,13 @@
         <v>850783</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H6" s="7">
         <v>1165</v>
@@ -2891,13 +2885,13 @@
         <v>1212062</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M6" s="7">
         <v>1999</v>
@@ -2906,13 +2900,13 @@
         <v>2062846</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2974,13 @@
         <v>122447</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>116</v>
@@ -2995,13 +2989,13 @@
         <v>137600</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>211</v>
@@ -3010,13 +3004,13 @@
         <v>260047</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3025,13 @@
         <v>200558</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H9" s="7">
         <v>100</v>
@@ -3046,13 +3040,13 @@
         <v>185955</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M9" s="7">
         <v>197</v>
@@ -3061,13 +3055,13 @@
         <v>386513</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3076,13 @@
         <v>1640952</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H10" s="7">
         <v>1419</v>
@@ -3097,13 +3091,13 @@
         <v>1434249</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M10" s="7">
         <v>3083</v>
@@ -3112,13 +3106,13 @@
         <v>3075200</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,7 +3201,7 @@
         <v>177</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="M12" s="7">
         <v>62</v>
@@ -3216,13 +3210,13 @@
         <v>76763</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3231,13 @@
         <v>86963</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -3252,13 +3246,13 @@
         <v>90941</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -3267,13 +3261,13 @@
         <v>177904</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3282,13 @@
         <v>360932</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>326</v>
@@ -3303,13 +3297,13 @@
         <v>324213</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>696</v>
@@ -3318,13 +3312,13 @@
         <v>685145</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3386,13 @@
         <v>207892</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>194</v>
@@ -3407,13 +3401,13 @@
         <v>231374</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>355</v>
@@ -3422,13 +3416,13 @@
         <v>439266</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3437,13 @@
         <v>359222</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>190</v>
@@ -3458,13 +3452,13 @@
         <v>352332</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>363</v>
@@ -3473,13 +3467,13 @@
         <v>711554</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3488,13 @@
         <v>2852667</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H18" s="7">
         <v>2910</v>
@@ -3509,13 +3503,13 @@
         <v>2970524</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M18" s="7">
         <v>5778</v>
@@ -3524,13 +3518,13 @@
         <v>5823191</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,7 +3599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC9BF91-8936-4EF6-A371-50583CE8AF31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D22302-B836-493B-A975-BFE8930E089A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3622,7 +3616,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3729,13 +3723,13 @@
         <v>24811</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -3744,13 +3738,13 @@
         <v>36530</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -3759,13 +3753,13 @@
         <v>61341</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3774,13 @@
         <v>41530</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -3795,7 +3789,7 @@
         <v>53716</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>234</v>
@@ -3858,7 +3852,7 @@
         <v>1545</v>
       </c>
       <c r="N6" s="7">
-        <v>1592419</v>
+        <v>1592420</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>245</v>
@@ -3909,7 +3903,7 @@
         <v>1653</v>
       </c>
       <c r="N7" s="7">
-        <v>1749006</v>
+        <v>1749007</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -3956,7 +3950,7 @@
         <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>230</v>
@@ -3965,13 +3959,13 @@
         <v>275879</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>253</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3980,13 @@
         <v>181865</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H9" s="7">
         <v>123</v>
@@ -4001,13 +3995,13 @@
         <v>203594</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M9" s="7">
         <v>230</v>
@@ -4019,10 +4013,10 @@
         <v>176</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4031,13 @@
         <v>1750860</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>1663</v>
@@ -4052,13 +4046,13 @@
         <v>1652487</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>3400</v>
@@ -4067,13 +4061,13 @@
         <v>3403347</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,7 +4135,7 @@
         <v>38900</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>270</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>271</v>
@@ -4156,13 +4150,13 @@
         <v>59274</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M12" s="7">
         <v>83</v>
@@ -4171,13 +4165,13 @@
         <v>98174</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4186,13 @@
         <v>90840</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -4207,13 +4201,13 @@
         <v>68795</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>95</v>
@@ -4222,13 +4216,13 @@
         <v>159635</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4237,13 @@
         <v>417146</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>431</v>
@@ -4258,13 +4252,13 @@
         <v>421072</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>849</v>
@@ -4273,13 +4267,13 @@
         <v>838218</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,13 +4341,13 @@
         <v>207371</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>298</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
         <v>209</v>
@@ -4362,13 +4356,13 @@
         <v>228023</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>126</v>
+        <v>298</v>
       </c>
       <c r="M16" s="7">
         <v>366</v>
@@ -4377,13 +4371,13 @@
         <v>435394</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4392,13 @@
         <v>314236</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>194</v>
@@ -4413,13 +4407,13 @@
         <v>326105</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>54</v>
+        <v>303</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>380</v>
@@ -4428,13 +4422,13 @@
         <v>640340</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4443,13 @@
         <v>2856012</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>310</v>
+        <v>223</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H18" s="7">
         <v>2923</v>
@@ -4464,13 +4458,13 @@
         <v>2977972</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M18" s="7">
         <v>5794</v>
@@ -4479,10 +4473,10 @@
         <v>5833984</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>114</v>
@@ -4560,7 +4554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0CEC6F-AF95-47F6-B007-E5ED9672CF82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191D408B-11C4-4493-9485-C9AF73E6D358}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4577,7 +4571,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4684,13 +4678,13 @@
         <v>6069</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -4699,13 +4693,13 @@
         <v>6687</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>80</v>
@@ -4714,13 +4708,13 @@
         <v>12755</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4729,13 @@
         <v>10239</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -4750,13 +4744,13 @@
         <v>21651</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -4765,13 +4759,13 @@
         <v>31890</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,28 +4780,28 @@
         <v>525326</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H6" s="7">
         <v>1345</v>
       </c>
       <c r="I6" s="7">
-        <v>795679</v>
+        <v>795678</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M6" s="7">
         <v>1986</v>
@@ -4816,13 +4810,13 @@
         <v>1321004</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,7 +4843,7 @@
         <v>1424</v>
       </c>
       <c r="I7" s="7">
-        <v>824016</v>
+        <v>824015</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4890,13 +4884,13 @@
         <v>24263</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H8" s="7">
         <v>237</v>
@@ -4905,13 +4899,13 @@
         <v>37754</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>389</v>
@@ -4920,13 +4914,13 @@
         <v>62017</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4935,13 @@
         <v>99145</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H9" s="7">
         <v>140</v>
@@ -4956,13 +4950,13 @@
         <v>99891</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="M9" s="7">
         <v>228</v>
@@ -4971,13 +4965,13 @@
         <v>199036</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>236</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4986,13 @@
         <v>1987035</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>2539</v>
@@ -5007,13 +5001,13 @@
         <v>1973557</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
         <v>4290</v>
@@ -5022,13 +5016,13 @@
         <v>3960592</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5090,13 @@
         <v>8455</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H12" s="7">
         <v>90</v>
@@ -5111,13 +5105,13 @@
         <v>14340</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M12" s="7">
         <v>143</v>
@@ -5126,13 +5120,13 @@
         <v>22794</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5141,13 @@
         <v>69449</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -5162,13 +5156,13 @@
         <v>60133</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>382</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
         <v>152</v>
@@ -5177,13 +5171,13 @@
         <v>129582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,13 +5192,13 @@
         <v>590440</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H14" s="7">
         <v>826</v>
@@ -5213,10 +5207,10 @@
         <v>636906</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>37</v>
@@ -5228,13 +5222,13 @@
         <v>1227347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>35</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5296,13 @@
         <v>38786</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>391</v>
+        <v>323</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="H16" s="7">
         <v>369</v>
@@ -5317,13 +5311,13 @@
         <v>58780</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>612</v>
@@ -5332,13 +5326,13 @@
         <v>97566</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5347,13 @@
         <v>178834</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>261</v>
@@ -5368,13 +5362,13 @@
         <v>181674</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>429</v>
@@ -5383,13 +5377,13 @@
         <v>360508</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,13 +5398,13 @@
         <v>3102801</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H18" s="7">
         <v>4710</v>
@@ -5419,13 +5413,13 @@
         <v>3406141</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M18" s="7">
         <v>7661</v>
@@ -5434,13 +5428,13 @@
         <v>6508942</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P58-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P58-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD2BE89F-9E13-475C-901D-D6D1693869B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFAC7E44-063E-475E-A821-583B5E3888BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7DC1FF09-DF3D-4050-9ADF-453CE9457C29}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B9A8BF00-B688-4702-A9F6-8BDC70718EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="409">
   <si>
     <t>Población según su lugar de nacimiento en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -989,295 +989,283 @@
     <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1570CA57-609B-423D-9EF9-AD5A087B2382}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44C0D62-19AE-4111-BD52-A03ED3CBBDB8}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2067,7 +2055,7 @@
         <v>90</v>
       </c>
       <c r="D9" s="7">
-        <v>153177</v>
+        <v>153178</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2118,7 +2106,7 @@
         <v>1496</v>
       </c>
       <c r="D10" s="7">
-        <v>1440356</v>
+        <v>1440357</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2148,7 +2136,7 @@
         <v>2847</v>
       </c>
       <c r="N10" s="7">
-        <v>2758389</v>
+        <v>2758388</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -2169,7 +2157,7 @@
         <v>1648</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2199,7 +2187,7 @@
         <v>3197</v>
       </c>
       <c r="N11" s="7">
-        <v>3281086</v>
+        <v>3281085</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2644,7 +2632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DEF3C4-88CD-466A-A16F-B07EA0780BD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A0349A-52ED-48BD-9E35-8517262113BB}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2882,7 +2870,7 @@
         <v>1165</v>
       </c>
       <c r="I6" s="7">
-        <v>1212062</v>
+        <v>1212063</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>144</v>
@@ -2933,7 +2921,7 @@
         <v>1247</v>
       </c>
       <c r="I7" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3309,7 +3297,7 @@
         <v>696</v>
       </c>
       <c r="N14" s="7">
-        <v>685145</v>
+        <v>685146</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>197</v>
@@ -3360,7 +3348,7 @@
         <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3599,7 +3587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D22302-B836-493B-A975-BFE8930E089A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440F82A4-DD4F-4941-8973-90FA83FB4526}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4315,7 +4303,7 @@
         <v>1027</v>
       </c>
       <c r="N15" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4389,7 +4377,7 @@
         <v>186</v>
       </c>
       <c r="D17" s="7">
-        <v>314236</v>
+        <v>314235</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>299</v>
@@ -4440,7 +4428,7 @@
         <v>2871</v>
       </c>
       <c r="D18" s="7">
-        <v>2856012</v>
+        <v>2856011</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>223</v>
@@ -4491,7 +4479,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3377618</v>
+        <v>3377617</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4554,7 +4542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191D408B-11C4-4493-9485-C9AF73E6D358}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129DFB0D-D751-4379-BD24-32C534E190F8}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4675,7 +4663,7 @@
         <v>38</v>
       </c>
       <c r="D4" s="7">
-        <v>6069</v>
+        <v>6282</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>316</v>
@@ -4684,16 +4672,16 @@
         <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
       </c>
       <c r="I4" s="7">
-        <v>6687</v>
+        <v>6784</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>319</v>
@@ -4705,7 +4693,7 @@
         <v>80</v>
       </c>
       <c r="N4" s="7">
-        <v>12755</v>
+        <v>13066</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>321</v>
@@ -4726,7 +4714,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>10239</v>
+        <v>9992</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>324</v>
@@ -4741,22 +4729,22 @@
         <v>37</v>
       </c>
       <c r="I5" s="7">
-        <v>21651</v>
+        <v>20011</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>327</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
       </c>
       <c r="N5" s="7">
-        <v>31890</v>
+        <v>30003</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>329</v>
@@ -4777,7 +4765,7 @@
         <v>641</v>
       </c>
       <c r="D6" s="7">
-        <v>525326</v>
+        <v>498664</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>332</v>
@@ -4792,7 +4780,7 @@
         <v>1345</v>
       </c>
       <c r="I6" s="7">
-        <v>795678</v>
+        <v>719255</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>335</v>
@@ -4807,7 +4795,7 @@
         <v>1986</v>
       </c>
       <c r="N6" s="7">
-        <v>1321004</v>
+        <v>1217921</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>338</v>
@@ -4828,7 +4816,7 @@
         <v>691</v>
       </c>
       <c r="D7" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4843,7 +4831,7 @@
         <v>1424</v>
       </c>
       <c r="I7" s="7">
-        <v>824015</v>
+        <v>746051</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4858,7 +4846,7 @@
         <v>2115</v>
       </c>
       <c r="N7" s="7">
-        <v>1365649</v>
+        <v>1260990</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4881,46 +4869,46 @@
         <v>152</v>
       </c>
       <c r="D8" s="7">
-        <v>24263</v>
+        <v>24913</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H8" s="7">
         <v>237</v>
       </c>
       <c r="I8" s="7">
-        <v>37754</v>
+        <v>38339</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>389</v>
       </c>
       <c r="N8" s="7">
-        <v>62017</v>
+        <v>63253</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,46 +4920,46 @@
         <v>88</v>
       </c>
       <c r="D9" s="7">
-        <v>99145</v>
+        <v>100989</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H9" s="7">
         <v>140</v>
       </c>
       <c r="I9" s="7">
-        <v>99891</v>
+        <v>94156</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>353</v>
+        <v>130</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>250</v>
+        <v>352</v>
       </c>
       <c r="M9" s="7">
         <v>228</v>
       </c>
       <c r="N9" s="7">
-        <v>199036</v>
+        <v>195145</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>356</v>
+        <v>237</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,46 +4971,46 @@
         <v>1751</v>
       </c>
       <c r="D10" s="7">
-        <v>1987035</v>
+        <v>1919745</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>36</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>2539</v>
       </c>
       <c r="I10" s="7">
-        <v>1973557</v>
+        <v>1795733</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>4290</v>
       </c>
       <c r="N10" s="7">
-        <v>3960592</v>
+        <v>3715478</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,7 +5022,7 @@
         <v>1991</v>
       </c>
       <c r="D11" s="7">
-        <v>2110443</v>
+        <v>2045647</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5049,7 +5037,7 @@
         <v>2916</v>
       </c>
       <c r="I11" s="7">
-        <v>2111201</v>
+        <v>1928229</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5064,7 +5052,7 @@
         <v>4907</v>
       </c>
       <c r="N11" s="7">
-        <v>4221644</v>
+        <v>3973876</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5087,46 +5075,46 @@
         <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>8455</v>
+        <v>8656</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H12" s="7">
         <v>90</v>
       </c>
       <c r="I12" s="7">
-        <v>14340</v>
+        <v>14594</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M12" s="7">
         <v>143</v>
       </c>
       <c r="N12" s="7">
-        <v>22794</v>
+        <v>23250</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,46 +5126,46 @@
         <v>68</v>
       </c>
       <c r="D13" s="7">
-        <v>69449</v>
+        <v>66523</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
       </c>
       <c r="I13" s="7">
-        <v>60133</v>
+        <v>56048</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>152</v>
       </c>
       <c r="N13" s="7">
-        <v>129582</v>
+        <v>122571</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,46 +5177,46 @@
         <v>559</v>
       </c>
       <c r="D14" s="7">
-        <v>590440</v>
+        <v>562483</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H14" s="7">
         <v>826</v>
       </c>
       <c r="I14" s="7">
-        <v>636906</v>
+        <v>587529</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>37</v>
+        <v>383</v>
       </c>
       <c r="M14" s="7">
         <v>1385</v>
       </c>
       <c r="N14" s="7">
-        <v>1227347</v>
+        <v>1150013</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,7 +5228,7 @@
         <v>680</v>
       </c>
       <c r="D15" s="7">
-        <v>668344</v>
+        <v>637662</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5255,7 +5243,7 @@
         <v>1000</v>
       </c>
       <c r="I15" s="7">
-        <v>711379</v>
+        <v>658171</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5270,7 +5258,7 @@
         <v>1680</v>
       </c>
       <c r="N15" s="7">
-        <v>1379723</v>
+        <v>1295834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5293,46 +5281,46 @@
         <v>243</v>
       </c>
       <c r="D16" s="7">
-        <v>38786</v>
+        <v>39851</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>323</v>
+        <v>387</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="H16" s="7">
         <v>369</v>
       </c>
       <c r="I16" s="7">
-        <v>58780</v>
+        <v>59718</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M16" s="7">
         <v>612</v>
       </c>
       <c r="N16" s="7">
-        <v>97566</v>
+        <v>99569</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,46 +5332,46 @@
         <v>168</v>
       </c>
       <c r="D17" s="7">
-        <v>178834</v>
+        <v>177504</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H17" s="7">
         <v>261</v>
       </c>
       <c r="I17" s="7">
-        <v>181674</v>
+        <v>170215</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>27</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>429</v>
       </c>
       <c r="N17" s="7">
-        <v>360508</v>
+        <v>347719</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,46 +5383,46 @@
         <v>2951</v>
       </c>
       <c r="D18" s="7">
-        <v>3102801</v>
+        <v>2980893</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H18" s="7">
         <v>4710</v>
       </c>
       <c r="I18" s="7">
-        <v>3406141</v>
+        <v>3102519</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M18" s="7">
         <v>7661</v>
       </c>
       <c r="N18" s="7">
-        <v>6508942</v>
+        <v>6083411</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,7 +5434,7 @@
         <v>3362</v>
       </c>
       <c r="D19" s="7">
-        <v>3320421</v>
+        <v>3198248</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5461,7 +5449,7 @@
         <v>5340</v>
       </c>
       <c r="I19" s="7">
-        <v>3646595</v>
+        <v>3332452</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5476,7 +5464,7 @@
         <v>8702</v>
       </c>
       <c r="N19" s="7">
-        <v>6967016</v>
+        <v>6530699</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
